--- a/invalid_watch.xlsx
+++ b/invalid_watch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,11 +525,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.393612431018261e+17</v>
+        <v>5.165040353401827e+18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh Samsung Galaxy Watch 6 dành cho nam 2023 có theo dõi  Amoled Luôn hiển thị nhịp tim &amp; theo dõi huyết áp Dây thép không gỉ</t>
+          <t>ese Mesh Band Active 22mm Dây đeo thép không gỉ kim loại cho Redmi Watch 5 3 Lite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,21 +538,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>796868</v>
+        <v>129713</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/239361243101826085_9199338627928130607.avi</t>
+          <t>Đồng_hồ_thông_minh/5165040353401827338_-7998568263358252690.avi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://img.lazcdn.com/g/p/dd15cd3a788bf146d858e79fb05dd32a.png_200x200q80.avif</t>
+          <t>https://img.lazcdn.com/g/p/809fdd30161abcee06fe8a7b7c0edf2f.jpg_200x200q80.avif</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.lazada.vn/products/pdp-i3013676188.html</t>
+          <t>https://www.lazada.vn/products/pdp-i3101752860.html</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,17 +562,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>đồng hồ thông minh samsung galaxy watch 6 dành cho nam 2023 có theo dõi  amoled luôn hiển thị nhịp tim &amp; theo dõi huyết áp dây thép không gỉ</t>
+          <t>ese mesh band active 22mm dây đeo thép không gỉ kim loại cho redmi watch 5 3 lite</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.165040353401827e+18</v>
+        <v>4.489735504784862e+18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ese Mesh Band Active 22mm Dây đeo thép không gỉ kim loại cho Redmi Watch 5 3 Lite</t>
+          <t>Mẫu Mới  Đồng Hồ LED Đồng Hồ Thời Trang Cá Tính Hình Vuông Học Sinh Đồng Hồ Điện Tử Có Nút Bấm J57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,21 +581,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>129713</v>
+        <v>10900</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5165040353401827338_-7998568263358252690.avi</t>
+          <t>Đồng_hồ_thông_minh/4489735504784861828_83309083991486757.avi</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://img.lazcdn.com/g/p/809fdd30161abcee06fe8a7b7c0edf2f.jpg_200x200q80.avif</t>
+          <t>https://img.lazcdn.com/g/p/2e5ed51db850c06962b91883193252ff.jpg_200x200q80.avif</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.lazada.vn/products/pdp-i3101752860.html</t>
+          <t>https://www.lazada.vn/products/pdp-i2492795636.html</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -605,17 +605,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ese mesh band active 22mm dây đeo thép không gỉ kim loại cho redmi watch 5 3 lite</t>
+          <t>mẫu mới  đồng hồ led đồng hồ thời trang cá tính hình vuông học sinh đồng hồ điện tử có nút bấm j57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.489735504784862e+18</v>
+        <v>276274779</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mẫu Mới  Đồng Hồ LED Đồng Hồ Thời Trang Cá Tính Hình Vuông Học Sinh Đồng Hồ Điện Tử Có Nút Bấm J57</t>
+          <t>Dây Cao Su Thay Thế cho Samsung Galaxy Fit 2 (SM-R220)- Hàng Nhập Khẩu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -624,41 +624,41 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10900</v>
+        <v>98000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4489735504784861828_83309083991486757.avi</t>
+          <t>Đồng_hồ_thông_minh/276274779_7729148570483085263.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://img.lazcdn.com/g/p/2e5ed51db850c06962b91883193252ff.jpg_200x200q80.avif</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/9d/b4/827fb0699f42e8f703882899beb5cc0c.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.lazada.vn/products/pdp-i2492795636.html</t>
+          <t>https://tiki.vn/day-cao-su-thay-the-cho-samsung-galaxy-fit-2-sm-r220-hang-nhap-khau-p276274779.html?spid=276274780</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Lazada</t>
+          <t>Tiki</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>mẫu mới  đồng hồ led đồng hồ thời trang cá tính hình vuông học sinh đồng hồ điện tử có nút bấm j57</t>
+          <t>dây cao su thay thế cho samsung galaxy fit 2 (sm-r220)- hàng nhập khẩu</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>276274779</v>
+        <v>200652020</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dây Cao Su Thay Thế cho Samsung Galaxy Fit 2 (SM-R220)- Hàng Nhập Khẩu</t>
+          <t>Kính Thực Tế Ảo VR Shinecon SC-G13 Cho Điện Thoại  4.7-7.2 Inch - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,21 +667,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>98000</v>
+        <v>178000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276274779_7729148570483085263.jpg</t>
+          <t>Đồng_hồ_thông_minh/200652020_-4572490687117242975.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/9d/b4/827fb0699f42e8f703882899beb5cc0c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f1/bc/50/e88197e84138f1488228d3535f6d3aa5.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-cao-su-thay-the-cho-samsung-galaxy-fit-2-sm-r220-hang-nhap-khau-p276274779.html?spid=276274780</t>
+          <t>https://tiki.vn/kinh-thuc-te-ao-vr-shinecon-sc-g13-cho-dien-thoai-4-7-7-2-inch-hang-chinh-hang-p200652020.html?spid=202507690</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>dây cao su thay thế cho samsung galaxy fit 2 (sm-r220)- hàng nhập khẩu</t>
+          <t>kính thực tế ảo vr shinecon sc-g13 cho điện thoại  4.7-7.2 inch - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>200652020</v>
+        <v>193974034</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kính Thực Tế Ảo VR Shinecon SC-G13 Cho Điện Thoại  4.7-7.2 Inch - Hàng Chính Hãng</t>
+          <t>Dây Silicon dành cho đồng hồ Apple nhiều màu- Hàng chính hãng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -710,21 +710,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>178000</v>
+        <v>92000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/200652020_-4572490687117242975.jpg</t>
+          <t>Đồng_hồ_thông_minh/193974034_-2959085169208429464.jpg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f1/bc/50/e88197e84138f1488228d3535f6d3aa5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5d/13/28/726461dc33de2b81aefbeccb5a238bd2.jpg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://tiki.vn/kinh-thuc-te-ao-vr-shinecon-sc-g13-cho-dien-thoai-4-7-7-2-inch-hang-chinh-hang-p200652020.html?spid=202507690</t>
+          <t>https://tiki.vn/day-silicon-danh-cho-dong-ho-apple-nhieu-mau-hang-chinh-hang-p193974034.html?spid=242107002</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>kính thực tế ảo vr shinecon sc-g13 cho điện thoại  4.7-7.2 inch - hàng chính hãng</t>
+          <t>dây silicon dành cho đồng hồ apple nhiều màu- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>193974034</v>
+        <v>193863364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dây Silicon dành cho đồng hồ Apple nhiều màu- Hàng chính hãng</t>
+          <t>Dock Sạc Dành Cho Huawei Watch GT3 / Huawei Watch GT Runner / Huawei Watch GT3 Pro/ Huawei Watch 4 / Huawei Watch 4 Pro / Huawei Watch GT 4/ GT5/ GT5 Pro - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -753,21 +753,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>92000</v>
+        <v>193030</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/193974034_-2959085169208429464.jpg</t>
+          <t>Đồng_hồ_thông_minh/193863364_-8644099974902224843.jpg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5d/13/28/726461dc33de2b81aefbeccb5a238bd2.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b3/a5/a6/b7e7213536217ce5397cf4f252b65dcc.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-silicon-danh-cho-dong-ho-apple-nhieu-mau-hang-chinh-hang-p193974034.html?spid=242107002</t>
+          <t>https://tiki.vn/dock-sac-danh-cho-huawei-watch-gt3-huawei-watch-gt-runner-huawei-watch-gt3-pro-hang-chinh-hang-p193863364.html?spid=193863365</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -777,17 +777,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>dây silicon dành cho đồng hồ apple nhiều màu- hàng chính hãng</t>
+          <t>dock sạc dành cho huawei watch gt3 / huawei watch gt runner / huawei watch gt3 pro/ huawei watch 4 / huawei watch 4 pro / huawei watch gt 4/ gt5/ gt5 pro - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>193863364</v>
+        <v>191502436</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dock Sạc Dành Cho Huawei Watch GT3 / Huawei Watch GT Runner / Huawei Watch GT3 Pro/ Huawei Watch 4 / Huawei Watch 4 Pro / Huawei Watch GT 4/ GT5/ GT5 Pro - Hàng Chính Hãng</t>
+          <t>Dây Đeo Thay Thế Viền Dành Cho Vòng Đeo Tay Thông Minh Xiaomi Mi Band 5/ Miband 6 - Hàng chính hãng</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -796,21 +796,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>193030</v>
+        <v>55000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/193863364_-8644099974902224843.jpg</t>
+          <t>Đồng_hồ_thông_minh/191502436_776591436767449419.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b3/a5/a6/b7e7213536217ce5397cf4f252b65dcc.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b2/ee/cf/4ce23b05e7d4ad6c65b45585d89e2bc1.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dock-sac-danh-cho-huawei-watch-gt3-huawei-watch-gt-runner-huawei-watch-gt3-pro-hang-chinh-hang-p193863364.html?spid=193863365</t>
+          <t>https://tiki.vn/day-deo-thay-the-vien-thep-danh-cho-vong-deo-tay-thong-minh-xiaomi-mi-band-5-miband-6-hang-chinh-hang-p191502436.html?spid=197694310</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>dock sạc dành cho huawei watch gt3 / huawei watch gt runner / huawei watch gt3 pro/ huawei watch 4 / huawei watch 4 pro / huawei watch gt 4/ gt5/ gt5 pro - hàng chính hãng</t>
+          <t>dây đeo thay thế viền dành cho vòng đeo tay thông minh xiaomi mi band 5/ miband 6 - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>191502436</v>
+        <v>183111772</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dây Đeo Thay Thế Viền Dành Cho Vòng Đeo Tay Thông Minh Xiaomi Mi Band 5/ Miband 6 - Hàng chính hãng</t>
+          <t>Dây Đeo Sport Loop Kai Dành Cho Apple Watch- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,21 +839,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55000</v>
+        <v>99000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/191502436_776591436767449419.jpg</t>
+          <t>Đồng_hồ_thông_minh/183111772_6655842677708031754.jpe</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b2/ee/cf/4ce23b05e7d4ad6c65b45585d89e2bc1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7c/85/a9/1f188d6201c5d5b140b7501d0ac1e0a1.jpeg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-thay-the-vien-thep-danh-cho-vong-deo-tay-thong-minh-xiaomi-mi-band-5-miband-6-hang-chinh-hang-p191502436.html?spid=197694310</t>
+          <t>https://tiki.vn/day-deo-sport-loop-kai-danh-cho-apple-watch-hang-chinh-hang-p183111772.html?spid=205285598</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -863,17 +863,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>dây đeo thay thế viền dành cho vòng đeo tay thông minh xiaomi mi band 5/ miband 6 - hàng chính hãng</t>
+          <t>dây đeo sport loop kai dành cho apple watch- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>183111772</v>
+        <v>68985833</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dây Đeo Sport Loop Kai Dành Cho Apple Watch- Hàng Chính Hãng</t>
+          <t>Dây sạc Cáp sạc Nam châm Đồng hồ Thông minh Q12, Q16, Q19, Q100, TD26, A28, DS60, DS66, Y95, D06, DF39 Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,21 +882,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>99000</v>
+        <v>47000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/183111772_6655842677708031754.jpe</t>
+          <t>Đồng_hồ_thông_minh/68985833_-2922548090954567909.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7c/85/a9/1f188d6201c5d5b140b7501d0ac1e0a1.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/74/9a/ab3fa7a30b5ea0827c8c74b6c59aa626.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-sport-loop-kai-danh-cho-apple-watch-hang-chinh-hang-p183111772.html?spid=205285598</t>
+          <t>https://tiki.vn/day-sac-cap-sac-nam-cham-dong-ho-thong-minh-q12-q16-q19-q100-td26-a28-ds60-ds66-y95-d06-df39-hang-nhap-khau-p68985833.html?spid=75432936</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>dây đeo sport loop kai dành cho apple watch- hàng chính hãng</t>
+          <t>dây sạc cáp sạc nam châm đồng hồ thông minh q12, q16, q19, q100, td26, a28, ds60, ds66, y95, d06, df39 hàng nhập khẩu</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68985833</v>
+        <v>22760568</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dây sạc Cáp sạc Nam châm Đồng hồ Thông minh Q12, Q16, Q19, Q100, TD26, A28, DS60, DS66, Y95, D06, DF39 Hàng nhập khẩu</t>
+          <t>Kính Thực Tế Ảo Xem Phim 3D VR Shinecon Cao Cấp AZONE - Hàng Nhập Khẩu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -925,21 +925,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47000</v>
+        <v>247803</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/68985833_-2922548090954567909.jpg</t>
+          <t>Đồng_hồ_thông_minh/22760568_3942574438899510639.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/74/9a/ab3fa7a30b5ea0827c8c74b6c59aa626.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/aa/09/ae62f787e43197a631ef1535bcc02bef.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-sac-cap-sac-nam-cham-dong-ho-thong-minh-q12-q16-q19-q100-td26-a28-ds60-ds66-y95-d06-df39-hang-nhap-khau-p68985833.html?spid=75432936</t>
+          <t>https://tiki.vn/kinh-thuc-te-ao-xem-phim-3d-vr-shinecon-cao-cap-azone-hang-nhap-khau-p22760568.html?spid=34413577</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -949,17 +949,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>dây sạc cáp sạc nam châm đồng hồ thông minh q12, q16, q19, q100, td26, a28, ds60, ds66, y95, d06, df39 hàng nhập khẩu</t>
+          <t>kính thực tế ảo xem phim 3d vr shinecon cao cấp azone - hàng nhập khẩu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22760568</v>
+        <v>278239466</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kính Thực Tế Ảo Xem Phim 3D VR Shinecon Cao Cấp AZONE - Hàng Nhập Khẩu</t>
+          <t>Dây Cáp Sạc Từ Tính cho Đồng Hồ Xiaomi Mi Band 5/ Mi Band 6/ Mi Band 7/ Mi band 8/ Mi band 9/ Mi band 10- Hàng chính hãng - Miband 5/6/7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -968,21 +968,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>247803</v>
+        <v>39000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/22760568_3942574438899510639.png</t>
+          <t>Đồng_hồ_thông_minh/278239466_4554883299645967715.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/aa/09/ae62f787e43197a631ef1535bcc02bef.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/2c/c9/a073bedde64ce75969d6d44bb732968c.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://tiki.vn/kinh-thuc-te-ao-xem-phim-3d-vr-shinecon-cao-cap-azone-hang-nhap-khau-p22760568.html?spid=34413577</t>
+          <t>https://tiki.vn/day-cap-sac-tu-tinh-cho-dong-ho-xiaomi-mi-band-5-mi-band-6-mi-band-7-mi-band-8-mi-band-9-mi-band-10-hang-chinh-hang-p278239466.html?spid=190602138</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>kính thực tế ảo xem phim 3d vr shinecon cao cấp azone - hàng nhập khẩu</t>
+          <t>dây cáp sạc từ tính cho đồng hồ xiaomi mi band 5/ mi band 6/ mi band 7/ mi band 8/ mi band 9/ mi band 10- hàng chính hãng - miband 5/6/7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>278239466</v>
+        <v>278152115</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dây Cáp Sạc Từ Tính cho Đồng Hồ Xiaomi Mi Band 5/ Mi Band 6/ Mi Band 7/ Mi band 8/ Mi band 9/ Mi band 10- Hàng chính hãng - Miband 5/6/7</t>
+          <t>Dây đeo Nylon Loop cho Huawei Watch Fit 3 / Huawei Watch Fit 4 / Huawei Watch Fit 4 Pro - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1011,21 +1011,21 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39000</v>
+        <v>109000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/278239466_4554883299645967715.png</t>
+          <t>Đồng_hồ_thông_minh/278152115_-4007969304300269553.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/2c/c9/a073bedde64ce75969d6d44bb732968c.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/76/0b/57/6fd3530bc30412cf6b5fac67f0bd8a25.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-cap-sac-tu-tinh-cho-dong-ho-xiaomi-mi-band-5-mi-band-6-mi-band-7-mi-band-8-mi-band-9-mi-band-10-hang-chinh-hang-p278239466.html?spid=190602138</t>
+          <t>https://tiki.vn/day-deo-nylon-loop-cho-huawei-watch-fit-3-huawei-watch-fit-4-huawei-watch-fit-4-pro-hang-chinh-hang-p278152115.html?spid=278152123</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>dây cáp sạc từ tính cho đồng hồ xiaomi mi band 5/ mi band 6/ mi band 7/ mi band 8/ mi band 9/ mi band 10- hàng chính hãng - miband 5/6/7</t>
+          <t>dây đeo nylon loop cho huawei watch fit 3 / huawei watch fit 4 / huawei watch fit 4 pro - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>278152115</v>
+        <v>278065999</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dây đeo Nylon Loop cho Huawei Watch Fit 3 / Huawei Watch Fit 4 / Huawei Watch Fit 4 Pro - Hàng Chính Hãng</t>
+          <t>Dock sạc nhanh khung nhôm Hoco CW59 dành cho Apple watch/ Samsung Galaxy Watch cổng type C, Dây Bọc Dù_ Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1054,21 +1054,21 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109000</v>
+        <v>263200</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/278152115_-4007969304300269553.jpg</t>
+          <t>Đồng_hồ_thông_minh/278065999_-4818864647586506909.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/76/0b/57/6fd3530bc30412cf6b5fac67f0bd8a25.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f3/74/f9/a74cd13fc1b00f9ad8f5fceedcdba61f.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-nylon-loop-cho-huawei-watch-fit-3-huawei-watch-fit-4-huawei-watch-fit-4-pro-hang-chinh-hang-p278152115.html?spid=278152123</t>
+          <t>https://tiki.vn/dock-sac-nhanh-khung-nhom-hoco-cw59-danh-cho-apple-watch-samsung-galaxy-watch-cong-type-c-day-boc-du_-hang-chinh-hang-p278065999.html?spid=278066001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>dây đeo nylon loop cho huawei watch fit 3 / huawei watch fit 4 / huawei watch fit 4 pro - hàng chính hãng</t>
+          <t>dock sạc nhanh khung nhôm hoco cw59 dành cho apple watch/ samsung galaxy watch cổng type c, dây bọc dù_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>278065999</v>
+        <v>277437272</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dock sạc nhanh khung nhôm Hoco CW59 dành cho Apple watch/ Samsung Galaxy Watch cổng type C, Dây Bọc Dù_ Hàng Chính Hãng</t>
+          <t>Dây đeo Silicone cho Redmi Watch 5 / Redmi Watch 4 / Xiaomi Mi Band 8 Pro / Xiaomi Mi Band 9 Pro  - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1097,21 +1097,21 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>263200</v>
+        <v>99000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/278065999_-4818864647586506909.png</t>
+          <t>Đồng_hồ_thông_minh/277437272_-471074320395700325.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f3/74/f9/a74cd13fc1b00f9ad8f5fceedcdba61f.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/3b/80/d2626e69c839b775d033bb51adf61734.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dock-sac-nhanh-khung-nhom-hoco-cw59-danh-cho-apple-watch-samsung-galaxy-watch-cong-type-c-day-boc-du_-hang-chinh-hang-p278065999.html?spid=278066001</t>
+          <t>https://tiki.vn/day-deo-silicone-cho-redmi-watch-5-redmi-watch-4-xiaomi-mi-band-8-pro-xiaomi-mi-band-9-pro-hang-chinh-hang-p277437272.html?spid=277437274</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>dock sạc nhanh khung nhôm hoco cw59 dành cho apple watch/ samsung galaxy watch cổng type c, dây bọc dù_ hàng chính hãng</t>
+          <t>dây đeo silicone cho redmi watch 5 / redmi watch 4 / xiaomi mi band 8 pro / xiaomi mi band 9 pro  - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>277437272</v>
+        <v>277177320</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dây đeo Silicone cho Redmi Watch 5 / Redmi Watch 4 / Xiaomi Mi Band 8 Pro / Xiaomi Mi Band 9 Pro  - Hàng Chính Hãng</t>
+          <t>Dây đeo Silicone thay thế cho Xiaomi Mi Band 9 Pro / Xiaomi Mi Band 8 Pro / Redmi Watch 5 / Redmi Watch 4  - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/277437272_-471074320395700325.jpg</t>
+          <t>Đồng_hồ_thông_minh/277177320_3377529907739306539.jpg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/3b/80/d2626e69c839b775d033bb51adf61734.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c8/ed/85/ab102386d743f5484e7e080ee9c2ddfe.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-silicone-cho-redmi-watch-5-redmi-watch-4-xiaomi-mi-band-8-pro-xiaomi-mi-band-9-pro-hang-chinh-hang-p277437272.html?spid=277437274</t>
+          <t>https://tiki.vn/day-deo-silicone-thay-the-cho-xiaomi-mi-band-9-pro-xiaomi-mi-band-8-pro-redmi-watch-5-redmi-watch-4-hang-chinh-hang-p277177320.html?spid=277177336</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>dây đeo silicone cho redmi watch 5 / redmi watch 4 / xiaomi mi band 8 pro / xiaomi mi band 9 pro  - hàng chính hãng</t>
+          <t>dây đeo silicone thay thế cho xiaomi mi band 9 pro / xiaomi mi band 8 pro / redmi watch 5 / redmi watch 4  - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>277177320</v>
+        <v>276364118</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dây đeo Silicone thay thế cho Xiaomi Mi Band 9 Pro / Xiaomi Mi Band 8 Pro / Redmi Watch 5 / Redmi Watch 4  - Hàng Chính Hãng</t>
+          <t>Miếng Dán Cường Lực GOR cho Huawei Watch GT 5 41/46mm &amp; Huawei Watch GT 5 Pro 42/46mm - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1183,21 +1183,21 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>99000</v>
+        <v>139000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/277177320_3377529907739306539.jpg</t>
+          <t>Đồng_hồ_thông_minh/276364118_-1727865252097623638.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c8/ed/85/ab102386d743f5484e7e080ee9c2ddfe.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/63/52/b97b85cb547e3a18859e902f32ca30d8.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-silicone-thay-the-cho-xiaomi-mi-band-9-pro-xiaomi-mi-band-8-pro-redmi-watch-5-redmi-watch-4-hang-chinh-hang-p277177320.html?spid=277177336</t>
+          <t>https://tiki.vn/mieng-dan-cuong-luc-gor-cho-huawei-watch-gt-5-41-46mm-huawei-watch-gt-5-pro-42-46mm-hang-chinh-hang-p276364118.html?spid=276364126</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>dây đeo silicone thay thế cho xiaomi mi band 9 pro / xiaomi mi band 8 pro / redmi watch 5 / redmi watch 4  - hàng chính hãng</t>
+          <t>miếng dán cường lực gor cho huawei watch gt 5 41/46mm &amp; huawei watch gt 5 pro 42/46mm - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>276364118</v>
+        <v>276354152</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Miếng Dán Cường Lực GOR cho Huawei Watch GT 5 41/46mm &amp; Huawei Watch GT 5 Pro 42/46mm - Hàng Chính Hãng</t>
+          <t>Dock Sạc Type-C Thay Thế dành cho Đồng Hồ Garmin Fenix / Forerunner / Instinct / Vivoactive / Vivomove / Venu / Approach / Epix - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>139000</v>
+        <v>99000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276364118_-1727865252097623638.jpg</t>
+          <t>Đồng_hồ_thông_minh/276354152_6016073398130222063.jpg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/63/52/b97b85cb547e3a18859e902f32ca30d8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/59/2c/ba/9dbd83e12ade94e0d1b18a557a57a5c3.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://tiki.vn/mieng-dan-cuong-luc-gor-cho-huawei-watch-gt-5-41-46mm-huawei-watch-gt-5-pro-42-46mm-hang-chinh-hang-p276364118.html?spid=276364126</t>
+          <t>https://tiki.vn/dock-sac-type-c-thay-the-danh-cho-dong-ho-garmin-fenix-forerunner-instinct-vivoactive-vivomove-venu-approach-epix-hang-chinh-hang-p276354152.html?spid=276354153</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1250,17 +1250,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>miếng dán cường lực gor cho huawei watch gt 5 41/46mm &amp; huawei watch gt 5 pro 42/46mm - hàng chính hãng</t>
+          <t>dock sạc type-c thay thế dành cho đồng hồ garmin fenix / forerunner / instinct / vivoactive / vivomove / venu / approach / epix - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>276354152</v>
+        <v>275852582</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dock Sạc Type-C Thay Thế dành cho Đồng Hồ Garmin Fenix / Forerunner / Instinct / Vivoactive / Vivomove / Venu / Approach / Epix - Hàng Chính Hãng</t>
+          <t>Dây đeo tích hợp case vỏ bảo vệ cho Xiaomi Mi Band 8 / Xiaomi Mi Band 9 / Xiaomi Mi Band 10 - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1269,21 +1269,21 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>99000</v>
+        <v>119000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276354152_6016073398130222063.jpg</t>
+          <t>Đồng_hồ_thông_minh/275852582_3508912475452185275.jpg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/59/2c/ba/9dbd83e12ade94e0d1b18a557a57a5c3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/06/26/513eb2097a699a136ffc32b4c664b823.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dock-sac-type-c-thay-the-danh-cho-dong-ho-garmin-fenix-forerunner-instinct-vivoactive-vivomove-venu-approach-epix-hang-chinh-hang-p276354152.html?spid=276354153</t>
+          <t>https://tiki.vn/day-deo-tich-hop-case-vo-bao-ve-cho-xiaomi-mi-band-8-hang-chinh-hang-p275852582.html?spid=276024103</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>dock sạc type-c thay thế dành cho đồng hồ garmin fenix / forerunner / instinct / vivoactive / vivomove / venu / approach / epix - hàng chính hãng</t>
+          <t>dây đeo tích hợp case vỏ bảo vệ cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>275852582</v>
+        <v>275637708</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dây đeo tích hợp case vỏ bảo vệ cho Xiaomi Mi Band 8 / Xiaomi Mi Band 9 / Xiaomi Mi Band 10 - Hàng Chính Hãng</t>
+          <t>Dây Đeo Thép Thay Thế Dành Cho Huawei Watch Fit 3/ Fit 4/ Fit 4 Pro, Kai.N Milanese Pro Huawei Fit 3_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1312,21 +1312,21 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>119000</v>
+        <v>149000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275852582_3508912475452185275.jpg</t>
+          <t>Đồng_hồ_thông_minh/275637708_1894199723438944912.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/06/26/513eb2097a699a136ffc32b4c664b823.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/59/c6/5e/26be5975b529720eecba1f2deabb6774.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-tich-hop-case-vo-bao-ve-cho-xiaomi-mi-band-8-hang-chinh-hang-p275852582.html?spid=276024103</t>
+          <t>https://tiki.vn/day-deo-thep-thay-the-danh-cho-huawei-watch-fit-3-kai-n-milanese-pro-huawei-fit-3_-hang-chinh-hang-p275637708.html?spid=275637716</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1336,17 +1336,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>dây đeo tích hợp case vỏ bảo vệ cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng chính hãng</t>
+          <t>dây đeo thép thay thế dành cho huawei watch fit 3/ fit 4/ fit 4 pro, kai.n milanese pro huawei fit 3_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>275637708</v>
+        <v>274824387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dây Đeo Thép Thay Thế Dành Cho Huawei Watch Fit 3/ Fit 4/ Fit 4 Pro, Kai.N Milanese Pro Huawei Fit 3_ Hàng chính hãng</t>
+          <t>Cáp sạc cho Đồng Hồ Samsung Galaxy Fit 3 R390 cổng type C, Kai.N Charge_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1355,21 +1355,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>149000</v>
+        <v>89000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275637708_1894199723438944912.jpg</t>
+          <t>Đồng_hồ_thông_minh/274824387_-3866111456170642482.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/59/c6/5e/26be5975b529720eecba1f2deabb6774.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/3f/4e/313af4148a106d84f263bfd5f1a16456.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-thep-thay-the-danh-cho-huawei-watch-fit-3-kai-n-milanese-pro-huawei-fit-3_-hang-chinh-hang-p275637708.html?spid=275637716</t>
+          <t>https://tiki.vn/cap-sac-cho-dong-ho-samsung-galaxy-fit-3-r390-cong-type-c-kai-n-charge_-hang-chinh-hang-p274824387.html?spid=274824388</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1379,17 +1379,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>dây đeo thép thay thế dành cho huawei watch fit 3/ fit 4/ fit 4 pro, kai.n milanese pro huawei fit 3_ hàng chính hãng</t>
+          <t>cáp sạc cho đồng hồ samsung galaxy fit 3 r390 cổng type c, kai.n charge_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>274824387</v>
+        <v>274794265</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cáp sạc cho Đồng Hồ Samsung Galaxy Fit 3 R390 cổng type C, Kai.N Charge_ Hàng chính hãng</t>
+          <t>Dây Đeo Thay Thế  Dành Cho Vòng Đeo Tay Thông Minh Samsung Galaxy Fit 3_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1398,21 +1398,21 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>89000</v>
+        <v>79000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/274824387_-3866111456170642482.png</t>
+          <t>Đồng_hồ_thông_minh/274794265_-9018701081180957238.jpg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/3f/4e/313af4148a106d84f263bfd5f1a16456.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1a/4d/e9/e8f408a2b4bd1a974bedde68fa63bc40.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cap-sac-cho-dong-ho-samsung-galaxy-fit-3-r390-cong-type-c-kai-n-charge_-hang-chinh-hang-p274824387.html?spid=274824388</t>
+          <t>https://tiki.vn/day-deo-thay-the-danh-cho-vong-deo-tay-thong-minh-samsung-galaxy-fit-3_-hang-chinh-hang-p274794265.html?spid=274794271</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cáp sạc cho đồng hồ samsung galaxy fit 3 r390 cổng type c, kai.n charge_ hàng chính hãng</t>
+          <t>dây đeo thay thế  dành cho vòng đeo tay thông minh samsung galaxy fit 3_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>274794265</v>
+        <v>274085268</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dây Đeo Thay Thế  Dành Cho Vòng Đeo Tay Thông Minh Samsung Galaxy Fit 3_ Hàng chính hãng</t>
+          <t>Dây Nylon Alpine Loop cho Apple Watch Series 1/2/3/4/5/6/7/8/9/SE1,2 &amp; Apple Watch Ultra 1/2 Size 38/40/41/42/44/45/49mm - Hàng Nhập Khẩu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1441,21 +1441,21 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79000</v>
+        <v>169000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/274794265_-9018701081180957238.jpg</t>
+          <t>Đồng_hồ_thông_minh/274085268_-7657365550438433056.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1a/4d/e9/e8f408a2b4bd1a974bedde68fa63bc40.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f8/8e/1d/a605ce317643263156584bbbdd3f2800.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-thay-the-danh-cho-vong-deo-tay-thong-minh-samsung-galaxy-fit-3_-hang-chinh-hang-p274794265.html?spid=274794271</t>
+          <t>https://tiki.vn/day-nylon-alpine-loop-cho-apple-watch-series-1-2-3-4-5-6-7-8-9-se1-2-apple-watch-ultra-1-2-size-38-40-41-42-44-45-49mm-hang-nhap-khau-p274085268.html?spid=274085284</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1465,17 +1465,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>dây đeo thay thế  dành cho vòng đeo tay thông minh samsung galaxy fit 3_ hàng chính hãng</t>
+          <t>dây nylon alpine loop cho apple watch series 1/2/3/4/5/6/7/8/9/se1,2 &amp; apple watch ultra 1/2 size 38/40/41/42/44/45/49mm - hàng nhập khẩu</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>274085268</v>
+        <v>277436857</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dây Nylon Alpine Loop cho Apple Watch Series 1/2/3/4/5/6/7/8/9/SE1,2 &amp; Apple Watch Ultra 1/2 Size 38/40/41/42/44/45/49mm - Hàng Nhập Khẩu</t>
+          <t>Dây Thép cho Redmi Watch 5 / Redmi Watch 4 / Xiaomi Mi Band 8 Pro / Xiaomi Mi Band 9 Pro  - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1484,21 +1484,21 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>169000</v>
+        <v>222130</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/274085268_-7657365550438433056.jpg</t>
+          <t>Đồng_hồ_thông_minh/277436857_-9069153533145168404.jpg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f8/8e/1d/a605ce317643263156584bbbdd3f2800.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3f/7f/76/b3ffe282d468a9812846624ce92b099e.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-nylon-alpine-loop-cho-apple-watch-series-1-2-3-4-5-6-7-8-9-se1-2-apple-watch-ultra-1-2-size-38-40-41-42-44-45-49mm-hang-nhap-khau-p274085268.html?spid=274085284</t>
+          <t>https://tiki.vn/day-thep-cho-redmi-watch-5-redmi-watch-4-xiaomi-mi-band-8-pro-xiaomi-mi-band-9-pro-hang-chinh-hang-p277436857.html?spid=277436861</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1508,17 +1508,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>dây nylon alpine loop cho apple watch series 1/2/3/4/5/6/7/8/9/se1,2 &amp; apple watch ultra 1/2 size 38/40/41/42/44/45/49mm - hàng nhập khẩu</t>
+          <t>dây thép cho redmi watch 5 / redmi watch 4 / xiaomi mi band 8 pro / xiaomi mi band 9 pro  - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>277436857</v>
+        <v>210426682</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dây Thép cho Redmi Watch 5 / Redmi Watch 4 / Xiaomi Mi Band 8 Pro / Xiaomi Mi Band 9 Pro  - Hàng Chính Hãng</t>
+          <t>Bộ 2 miếng dán Gor 3D cho Apple Watch Series 4/ 5/ 6/ 7/ 8/ 9/ SE Size40/ 41/ 44/ 45 mm ( hộp 2 miếng) _Hàng chính hãng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1527,21 +1527,21 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>222130</v>
+        <v>85000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/277436857_-9069153533145168404.jpg</t>
+          <t>Đồng_hồ_thông_minh/210426682_4739616609338923945.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3f/7f/76/b3ffe282d468a9812846624ce92b099e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ae/32/80/a212844d6e4c89ab5a8daedee5485ce4.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-thep-cho-redmi-watch-5-redmi-watch-4-xiaomi-mi-band-8-pro-xiaomi-mi-band-9-pro-hang-chinh-hang-p277436857.html?spid=277436861</t>
+          <t>https://tiki.vn/bo-2-mieng-dan-gor-3d-cho-apple-watch-series-4-5-6-7-8-se-size40-41-44-45-mm-hop-2-mieng-_hang-chinh-hang-p210426682.html?spid=210426686</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>dây thép cho redmi watch 5 / redmi watch 4 / xiaomi mi band 8 pro / xiaomi mi band 9 pro  - hàng chính hãng</t>
+          <t>bộ 2 miếng dán gor 3d cho apple watch series 4/ 5/ 6/ 7/ 8/ 9/ se size40/ 41/ 44/ 45 mm ( hộp 2 miếng) _hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>210426682</v>
+        <v>247867515</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bộ 2 miếng dán Gor 3D cho Apple Watch Series 4/ 5/ 6/ 7/ 8/ 9/ SE Size40/ 41/ 44/ 45 mm ( hộp 2 miếng) _Hàng chính hãng</t>
+          <t>Shinecon G07E - Kính Thực Tế Ảo VR Shinecon 2018 version 7 G07E - Hàng Chính Hãng - VR SHINECON G07E 9th Generation Virtual Reality 3D Video Glasses Game Virtual Reality Glasses VR Headset Helmet for Android IOS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1570,21 +1570,21 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>85000</v>
+        <v>503220</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/210426682_4739616609338923945.jpg</t>
+          <t>Đồng_hồ_thông_minh/247867515_2929742869834894356.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ae/32/80/a212844d6e4c89ab5a8daedee5485ce4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f3/55/78/91b15f1bc4fce66129c396d53a6ee086.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://tiki.vn/bo-2-mieng-dan-gor-3d-cho-apple-watch-series-4-5-6-7-8-se-size40-41-44-45-mm-hop-2-mieng-_hang-chinh-hang-p210426682.html?spid=210426686</t>
+          <t>https://tiki.vn/shinecon-g07e-kinh-thuc-te-ao-vr-shinecon-2018-version-7-g07e-hang-chinh-hang-vr-shinecon-g07e-9th-generation-virtual-reality-3d-video-glasses-game-virtual-reality-glasses-vr-headset-helmet-for-android-ios-p247867515.html?spid=247867516</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1594,17 +1594,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>bộ 2 miếng dán gor 3d cho apple watch series 4/ 5/ 6/ 7/ 8/ 9/ se size40/ 41/ 44/ 45 mm ( hộp 2 miếng) _hàng chính hãng</t>
+          <t>shinecon g07e - kính thực tế ảo vr shinecon 2018 version 7 g07e - hàng chính hãng - vr shinecon g07e 9th generation virtual reality 3d video glasses game virtual reality glasses vr headset helmet for android ios</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>247867515</v>
+        <v>257835948</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shinecon G07E - Kính Thực Tế Ảo VR Shinecon 2018 version 7 G07E - Hàng Chính Hãng - VR SHINECON G07E 9th Generation Virtual Reality 3D Video Glasses Game Virtual Reality Glasses VR Headset Helmet for Android IOS</t>
+          <t>Dock Sạc Nhanh Dành Cho Samsung Galaxy Watch 6/ 7/ Galaxy Watch Ultra/ Galaxy Watch 5/ Galaxy Watch 5 Pro/ Galaxy Watch 4/ Galaxy Watch 3 Cổng Type C_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1613,21 +1613,21 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>503220</v>
+        <v>235000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/247867515_2929742869834894356.jpg</t>
+          <t>Đồng_hồ_thông_minh/257835948_-7877311509955012015.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f3/55/78/91b15f1bc4fce66129c396d53a6ee086.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b0/1d/fa/a10a4fb56ffe0e66ee78b35993014591.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://tiki.vn/shinecon-g07e-kinh-thuc-te-ao-vr-shinecon-2018-version-7-g07e-hang-chinh-hang-vr-shinecon-g07e-9th-generation-virtual-reality-3d-video-glasses-game-virtual-reality-glasses-vr-headset-helmet-for-android-ios-p247867515.html?spid=247867516</t>
+          <t>https://tiki.vn/dock-sac-nhanh-danh-cho-samsung-galaxy-watch-5-galaxy-watch-5-pro-galaxy-watch-4-galaxy-watch-3-cong-type-c_-hang-chinh-hang-p257835948.html?spid=257835951</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>shinecon g07e - kính thực tế ảo vr shinecon 2018 version 7 g07e - hàng chính hãng - vr shinecon g07e 9th generation virtual reality 3d video glasses game virtual reality glasses vr headset helmet for android ios</t>
+          <t>dock sạc nhanh dành cho samsung galaxy watch 6/ 7/ galaxy watch ultra/ galaxy watch 5/ galaxy watch 5 pro/ galaxy watch 4/ galaxy watch 3 cổng type c_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>257835948</v>
+        <v>278152096</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dock Sạc Nhanh Dành Cho Samsung Galaxy Watch 6/ 7/ Galaxy Watch Ultra/ Galaxy Watch 5/ Galaxy Watch 5 Pro/ Galaxy Watch 4/ Galaxy Watch 3 Cổng Type C_ Hàng chính hãng</t>
+          <t>Dây đeo Silicone Ocean cho Huawei Watch Fit 3 / Huawei Watch Fit 4 / Huawei Watch Fit 4 Pro - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1656,21 +1656,21 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>235000</v>
+        <v>109000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/257835948_-7877311509955012015.jpg</t>
+          <t>Đồng_hồ_thông_minh/278152096_-4725463907081803601.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b0/1d/fa/a10a4fb56ffe0e66ee78b35993014591.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/47/0c/54/17486706e8f2946712ddd54383f55fa4.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dock-sac-nhanh-danh-cho-samsung-galaxy-watch-5-galaxy-watch-5-pro-galaxy-watch-4-galaxy-watch-3-cong-type-c_-hang-chinh-hang-p257835948.html?spid=257835951</t>
+          <t>https://tiki.vn/day-deo-silicone-ocean-cho-huawei-watch-fit-3-huawei-watch-fit-4-huawei-watch-fit-4-pro-hang-chinh-hang-p278152096.html?spid=278152098</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1680,17 +1680,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>dock sạc nhanh dành cho samsung galaxy watch 6/ 7/ galaxy watch ultra/ galaxy watch 5/ galaxy watch 5 pro/ galaxy watch 4/ galaxy watch 3 cổng type c_ hàng chính hãng</t>
+          <t>dây đeo silicone ocean cho huawei watch fit 3 / huawei watch fit 4 / huawei watch fit 4 pro - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>278152096</v>
+        <v>277718293</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dây đeo Silicone Ocean cho Huawei Watch Fit 3 / Huawei Watch Fit 4 / Huawei Watch Fit 4 Pro - Hàng Chính Hãng</t>
+          <t>Dây đeo cho vòng đeo tay thông minh Xiaomi MiBand 8/ Miband 9/ Mi band 10 ngàm thép_ Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1699,21 +1699,21 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>109000</v>
+        <v>59000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/278152096_-4725463907081803601.jpg</t>
+          <t>Đồng_hồ_thông_minh/277718293_-992154677997875375.jpe</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/47/0c/54/17486706e8f2946712ddd54383f55fa4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/9d/bb/f5943c4069412ca5ca94bba7adad4149.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-silicone-ocean-cho-huawei-watch-fit-3-huawei-watch-fit-4-huawei-watch-fit-4-pro-hang-chinh-hang-p278152096.html?spid=278152098</t>
+          <t>https://tiki.vn/day-deo-cho-vong-deo-tay-thong-minh-xiaomi-miband-8-miband-9-ngam-thep_-hang-chinh-hang-p277718293.html?spid=277718305</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1723,17 +1723,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>dây đeo silicone ocean cho huawei watch fit 3 / huawei watch fit 4 / huawei watch fit 4 pro - hàng chính hãng</t>
+          <t>dây đeo cho vòng đeo tay thông minh xiaomi miband 8/ miband 9/ mi band 10 ngàm thép_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>277718293</v>
+        <v>277613010</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dây đeo cho vòng đeo tay thông minh Xiaomi MiBand 8/ Miband 9/ Mi band 10 ngàm thép_ Hàng Chính Hãng</t>
+          <t xml:space="preserve">Cáp sạc thay thế cho các dòng đồng hồ Garmin Fenix 7, Fenix 6, Fenix 5, Forerunner 955, 945, 935, 245, 265, 255, 45, 645, Instinct, Viviactive 3, Venu/ Garmin Epix Gen 2- Hàng Nhập Khẩu </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1742,21 +1742,21 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>59000</v>
+        <v>137200</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/277718293_-992154677997875375.jpe</t>
+          <t>Đồng_hồ_thông_minh/277613010_-3376164279832043488.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/9d/bb/f5943c4069412ca5ca94bba7adad4149.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e0/46/28/7d8eccf142c6f02d5e8ce1dccfd0018c.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-cho-vong-deo-tay-thong-minh-xiaomi-miband-8-miband-9-ngam-thep_-hang-chinh-hang-p277718293.html?spid=277718305</t>
+          <t>https://tiki.vn/cap-sac-thay-the-cho-cac-dong-dong-ho-garmin-fenix-7-fenix-6-fenix-5-forerunner-955-945-935-245-265-255-45-645-instinct-viviactive-3-venu-garmin-epix-gen-2-hang-nhap-khau-p277613010.html?spid=277613011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>dây đeo cho vòng đeo tay thông minh xiaomi miband 8/ miband 9/ mi band 10 ngàm thép_ hàng chính hãng</t>
+          <t xml:space="preserve">cáp sạc thay thế cho các dòng đồng hồ garmin fenix 7, fenix 6, fenix 5, forerunner 955, 945, 935, 245, 265, 255, 45, 645, instinct, viviactive 3, venu/ garmin epix gen 2- hàng nhập khẩu </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>277613010</v>
+        <v>276381402</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cáp sạc thay thế cho các dòng đồng hồ Garmin Fenix 7, Fenix 6, Fenix 5, Forerunner 955, 945, 935, 245, 265, 255, 45, 645, Instinct, Viviactive 3, Venu/ Garmin Epix Gen 2- Hàng Nhập Khẩu </t>
+          <t>Dock Sạc Cho Huawei Watch GT 2 Pro / GT Runner / GT3/3Pro / GT4/4Pro / Huawei Watch GT5 / Huawei Watch GT 5 Pro - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1785,21 +1785,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>137200</v>
+        <v>213400</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/277613010_-3376164279832043488.jpg</t>
+          <t>Đồng_hồ_thông_minh/276381402_568689000862447373.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e0/46/28/7d8eccf142c6f02d5e8ce1dccfd0018c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/ea/e6/1e002b1c6c21df79e940c629ca72448c.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cap-sac-thay-the-cho-cac-dong-dong-ho-garmin-fenix-7-fenix-6-fenix-5-forerunner-955-945-935-245-265-255-45-645-instinct-viviactive-3-venu-garmin-epix-gen-2-hang-nhap-khau-p277613010.html?spid=277613011</t>
+          <t>https://tiki.vn/dock-sac-cho-huawei-watch-gt3-huawei-watch-gt-runner-huawei-watch-gt3-pro-hang-chinh-hang-p276381402.html?spid=276381403</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1809,17 +1809,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">cáp sạc thay thế cho các dòng đồng hồ garmin fenix 7, fenix 6, fenix 5, forerunner 955, 945, 935, 245, 265, 255, 45, 645, instinct, viviactive 3, venu/ garmin epix gen 2- hàng nhập khẩu </t>
+          <t>dock sạc cho huawei watch gt 2 pro / gt runner / gt3/3pro / gt4/4pro / huawei watch gt5 / huawei watch gt 5 pro - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>276381402</v>
+        <v>276380723</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dock Sạc Cho Huawei Watch GT 2 Pro / GT Runner / GT3/3Pro / GT4/4Pro / Huawei Watch GT5 / Huawei Watch GT 5 Pro - Hàng Chính Hãng</t>
+          <t>Bộ 3 Miếng Dán cường lực GOR cho Smartwatch Huawei Watch GT5/ GT5 Pro - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1828,21 +1828,21 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>213400</v>
+        <v>139000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276381402_568689000862447373.jpg</t>
+          <t>Đồng_hồ_thông_minh/276380723_-3063256343328214725.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/ea/e6/1e002b1c6c21df79e940c629ca72448c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/63/52/7092ca7aaf125599b599a1d3c49e3b8a.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dock-sac-cho-huawei-watch-gt3-huawei-watch-gt-runner-huawei-watch-gt3-pro-hang-chinh-hang-p276381402.html?spid=276381403</t>
+          <t>https://tiki.vn/bo-3-mieng-dan-cuong-luc-gor-cho-smartwatch-huawei-watch-gt5-gt5-pro-hang-chinh-hang-p276380723.html?spid=276612068</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1852,17 +1852,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>dock sạc cho huawei watch gt 2 pro / gt runner / gt3/3pro / gt4/4pro / huawei watch gt5 / huawei watch gt 5 pro - hàng chính hãng</t>
+          <t>bộ 3 miếng dán cường lực gor cho smartwatch huawei watch gt5/ gt5 pro - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>276380723</v>
+        <v>276149814</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bộ 3 Miếng Dán cường lực GOR cho Smartwatch Huawei Watch GT5/ GT5 Pro - Hàng Chính Hãng</t>
+          <t>Cáp Sạc Đế Sạc cho Samsung Galaxy Watch 3/4/4Classic/5/5Pro/6/6Classic/7/Ultra &amp; Galaxy Watch Active 1/2- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1871,21 +1871,21 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>139000</v>
+        <v>159000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276380723_-3063256343328214725.jpg</t>
+          <t>Đồng_hồ_thông_minh/276149814_-5385547689141547200.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/63/52/7092ca7aaf125599b599a1d3c49e3b8a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2b/d4/ae/777c04da05202efaa5640ee2139f0239.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://tiki.vn/bo-3-mieng-dan-cuong-luc-gor-cho-smartwatch-huawei-watch-gt5-gt5-pro-hang-chinh-hang-p276380723.html?spid=276612068</t>
+          <t>https://tiki.vn/cap-sac-de-sac-cho-samsung-galaxy-watch-3-4-4classic-5-5pro-6-6classic-7-ultra-galaxy-watch-active-1-2-hang-chinh-hang-p276149814.html?spid=276149822</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1895,17 +1895,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>bộ 3 miếng dán cường lực gor cho smartwatch huawei watch gt5/ gt5 pro - hàng chính hãng</t>
+          <t>cáp sạc đế sạc cho samsung galaxy watch 3/4/4classic/5/5pro/6/6classic/7/ultra &amp; galaxy watch active 1/2- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>276149814</v>
+        <v>275852410</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cáp Sạc Đế Sạc cho Samsung Galaxy Watch 3/4/4Classic/5/5Pro/6/6Classic/7/Ultra &amp; Galaxy Watch Active 1/2- Hàng Chính Hãng</t>
+          <t>Dây đeo Silicone thay thế cho Xiaomi Mi Band 8 / Xiaomi Mi Band 9 / Xiaomi Mi Band 10 - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1914,21 +1914,21 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>159000</v>
+        <v>99000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276149814_-5385547689141547200.jpg</t>
+          <t>Đồng_hồ_thông_minh/275852410_8682874804206987084.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2b/d4/ae/777c04da05202efaa5640ee2139f0239.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/7b/12/b5aa94286ad5342a2ee8ab13f44d6674.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cap-sac-de-sac-cho-samsung-galaxy-watch-3-4-4classic-5-5pro-6-6classic-7-ultra-galaxy-watch-active-1-2-hang-chinh-hang-p276149814.html?spid=276149822</t>
+          <t>https://tiki.vn/day-deo-silicone-thay-the-cho-xiaomi-mi-band-8-hang-chinh-hang-p275852410.html?spid=276024090</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1938,17 +1938,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cáp sạc đế sạc cho samsung galaxy watch 3/4/4classic/5/5pro/6/6classic/7/ultra &amp; galaxy watch active 1/2- hàng chính hãng</t>
+          <t>dây đeo silicone thay thế cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>275852410</v>
+        <v>275802149</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dây đeo Silicone thay thế cho Xiaomi Mi Band 8 / Xiaomi Mi Band 9 / Xiaomi Mi Band 10 - Hàng Chính Hãng</t>
+          <t>Miếng dán kính cường lực cho đồng hồ Samsung Galaxy Watch Ultra/ Galaxy Watch 7 44/40mm Full HD Clear 2.5D_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1957,21 +1957,21 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>99000</v>
+        <v>49000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275852410_8682874804206987084.jpg</t>
+          <t>Đồng_hồ_thông_minh/275802149_-6720869268026576831.jpe</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/7b/12/b5aa94286ad5342a2ee8ab13f44d6674.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/12/aa/ea/830372d0afa960cb1f75f39377b66ea4.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-silicone-thay-the-cho-xiaomi-mi-band-8-hang-chinh-hang-p275852410.html?spid=276024090</t>
+          <t>https://tiki.vn/mieng-dan-kinh-cuong-luc-cho-dong-ho-samsung-galaxy-watch-ultra-galaxy-watch-7-44-40mm-full-hd-clear-2-5d_-hang-chinh-hang-p275802149.html?spid=275802151</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>dây đeo silicone thay thế cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng chính hãng</t>
+          <t>miếng dán kính cường lực cho đồng hồ samsung galaxy watch ultra/ galaxy watch 7 44/40mm full hd clear 2.5d_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>275802149</v>
+        <v>275713587</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Miếng dán kính cường lực cho đồng hồ Samsung Galaxy Watch Ultra/ Galaxy Watch 7 44/40mm Full HD Clear 2.5D_ Hàng chính hãng</t>
+          <t>Dây cáp sạc cho Đồng Hồ Huawei Watch Fit 3/ Watch Fit 2/ Huawei Band 7/8/9/ Watch Kids 4 cổng USB C_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2000,21 +2000,21 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>49000</v>
+        <v>79000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275802149_-6720869268026576831.jpe</t>
+          <t>Đồng_hồ_thông_minh/275713587_27198128419462487.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/12/aa/ea/830372d0afa960cb1f75f39377b66ea4.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/df/f2/6d9341783d1c577eca720028d45231f4.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://tiki.vn/mieng-dan-kinh-cuong-luc-cho-dong-ho-samsung-galaxy-watch-ultra-galaxy-watch-7-44-40mm-full-hd-clear-2-5d_-hang-chinh-hang-p275802149.html?spid=275802151</t>
+          <t>https://tiki.vn/day-cap-sac-cho-dong-ho-huawei-watch-fit-3-watch-fit-2-huawei-band-7-8-9-watch-kids-4-pro-cong-usb-c_-hang-chinh-hang-p275713587.html?spid=275081792</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2024,17 +2024,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>miếng dán kính cường lực cho đồng hồ samsung galaxy watch ultra/ galaxy watch 7 44/40mm full hd clear 2.5d_ hàng chính hãng</t>
+          <t>dây cáp sạc cho đồng hồ huawei watch fit 3/ watch fit 2/ huawei band 7/8/9/ watch kids 4 cổng usb c_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>275713587</v>
+        <v>275659316</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dây cáp sạc cho Đồng Hồ Huawei Watch Fit 3/ Watch Fit 2/ Huawei Band 7/8/9/ Watch Kids 4 cổng USB C_ Hàng chính hãng</t>
+          <t>Dây Đeo Đồng Hồ KAi.N Sport Pro cho Huawei Watch Fit 3/Fit 4/ Fit 4 Pro_Hàng chính hãng</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2043,21 +2043,21 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>79000</v>
+        <v>149000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275713587_27198128419462487.png</t>
+          <t>Đồng_hồ_thông_minh/275659316_7107625610476004250.jpg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/df/f2/6d9341783d1c577eca720028d45231f4.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/df/be/c8fb1661a7a9c9babd5bf01b5490dce0.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-cap-sac-cho-dong-ho-huawei-watch-fit-3-watch-fit-2-huawei-band-7-8-9-watch-kids-4-pro-cong-usb-c_-hang-chinh-hang-p275713587.html?spid=275081792</t>
+          <t>https://tiki.vn/day-deo-dong-ho-kai-n-sport-pro-cho-huawei-watch-fit-3_hang-chinh-hang-p275659316.html?spid=275659320</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2067,17 +2067,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>dây cáp sạc cho đồng hồ huawei watch fit 3/ watch fit 2/ huawei band 7/8/9/ watch kids 4 cổng usb c_ hàng chính hãng</t>
+          <t>dây đeo đồng hồ kai.n sport pro cho huawei watch fit 3/fit 4/ fit 4 pro_hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>275659316</v>
+        <v>275658600</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dây Đeo Đồng Hồ KAi.N Sport Pro cho Huawei Watch Fit 3/Fit 4/ Fit 4 Pro_Hàng chính hãng</t>
+          <t>Dây Đồng Hồ Dành Cho Huawei Watch Fit 3/ Fit 4/ Fit 4 Pro, Kai.N Sport Pro_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275659316_7107625610476004250.jpg</t>
+          <t>Đồng_hồ_thông_minh/275658600_-6643108050470932348.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/df/be/c8fb1661a7a9c9babd5bf01b5490dce0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/a5/29/6f6d269ccc5e917ca2743a360b795958.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-dong-ho-kai-n-sport-pro-cho-huawei-watch-fit-3_hang-chinh-hang-p275659316.html?spid=275659320</t>
+          <t>https://tiki.vn/day-dong-ho-danh-cho-huawei-watch-fit-3-kai-n-sport-pro_-hang-chinh-hang-p275658600.html?spid=275658606</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2110,17 +2110,17 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>dây đeo đồng hồ kai.n sport pro cho huawei watch fit 3/fit 4/ fit 4 pro_hàng chính hãng</t>
+          <t>dây đồng hồ dành cho huawei watch fit 3/ fit 4/ fit 4 pro, kai.n sport pro_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>275658600</v>
+        <v>275574023</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dây Đồng Hồ Dành Cho Huawei Watch Fit 3/ Fit 4/ Fit 4 Pro, Kai.N Sport Pro_ Hàng chính hãng</t>
+          <t>Dây đeo Silicone thay thế cho Huawei Watch Fit 3 / Fit 4 / Fit 4 Pro - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2129,21 +2129,21 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>149000</v>
+        <v>99000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275658600_-6643108050470932348.jpg</t>
+          <t>Đồng_hồ_thông_minh/275574023_-2590749144999521807.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/a5/29/6f6d269ccc5e917ca2743a360b795958.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/7a/ca/ed21cf3f7901cea8dbbd5b06f4fa693d.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-dong-ho-danh-cho-huawei-watch-fit-3-kai-n-sport-pro_-hang-chinh-hang-p275658600.html?spid=275658606</t>
+          <t>https://tiki.vn/day-deo-silicone-thay-the-cho-huawei-watch-fit-3-hang-chinh-hang-p275574023.html?spid=275574031</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2153,17 +2153,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>dây đồng hồ dành cho huawei watch fit 3/ fit 4/ fit 4 pro, kai.n sport pro_ hàng chính hãng</t>
+          <t>dây đeo silicone thay thế cho huawei watch fit 3 / fit 4 / fit 4 pro - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>275574023</v>
+        <v>274824323</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dây đeo Silicone thay thế cho Huawei Watch Fit 3 / Fit 4 / Fit 4 Pro - Hàng Chính Hãng</t>
+          <t>Dây cáp sạc cho Đồng Hồ Samsung Galaxy Fit 3 R390 cổng USB C_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2172,21 +2172,21 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>99000</v>
+        <v>89000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275574023_-2590749144999521807.jpg</t>
+          <t>Đồng_hồ_thông_minh/274824323_-7455013176710355343.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/7a/ca/ed21cf3f7901cea8dbbd5b06f4fa693d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9b/2c/9a/55ce10ba206e301a5f5798b2f0acfee4.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-silicone-thay-the-cho-huawei-watch-fit-3-hang-chinh-hang-p275574023.html?spid=275574031</t>
+          <t>https://tiki.vn/day-cap-sac-cho-dong-ho-samsung-galaxy-fit-3-r390-cong-usb-c_-hang-chinh-hang-p274824323.html?spid=274824324</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2196,17 +2196,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>dây đeo silicone thay thế cho huawei watch fit 3 / fit 4 / fit 4 pro - hàng chính hãng</t>
+          <t>dây cáp sạc cho đồng hồ samsung galaxy fit 3 r390 cổng usb c_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>274824323</v>
+        <v>274798222</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dây cáp sạc cho Đồng Hồ Samsung Galaxy Fit 3 R390 cổng USB C_ Hàng chính hãng</t>
+          <t>Dây Đeo Thép Thay Thế Dành Cho Samsung Galaxy Fit 3, Kai.N Milanese Pro_ Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2215,21 +2215,21 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>89000</v>
+        <v>149000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/274824323_-7455013176710355343.png</t>
+          <t>Đồng_hồ_thông_minh/274798222_-5457574171900016199.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9b/2c/9a/55ce10ba206e301a5f5798b2f0acfee4.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a1/10/87/fcf56a56faa0b5c9f57d76f4d98990e5.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-cap-sac-cho-dong-ho-samsung-galaxy-fit-3-r390-cong-usb-c_-hang-chinh-hang-p274824323.html?spid=274824324</t>
+          <t>https://tiki.vn/day-deo-thep-thay-the-danh-cho-samsung-galaxy-fit-3-kai-n-milanese-pro_-hang-chinh-hang-p274798222.html?spid=274798232</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2239,17 +2239,17 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>dây cáp sạc cho đồng hồ samsung galaxy fit 3 r390 cổng usb c_ hàng chính hãng</t>
+          <t>dây đeo thép thay thế dành cho samsung galaxy fit 3, kai.n milanese pro_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>274798222</v>
+        <v>274589038</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dây Đeo Thép Thay Thế Dành Cho Samsung Galaxy Fit 3, Kai.N Milanese Pro_ Hàng Chính Hãng</t>
+          <t>Dây Silicon Khóa Thể Thao cho Apple Watch Series 1/2/3/4/5/6/7/8/9/SE1,2 &amp; Apple Watch Ultra 1/2 Size 38/40/41/42/44/45/49mm - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2258,21 +2258,21 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>149000</v>
+        <v>99000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/274798222_-5457574171900016199.jpg</t>
+          <t>Đồng_hồ_thông_minh/274589038_5704484573321716100.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a1/10/87/fcf56a56faa0b5c9f57d76f4d98990e5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/6f/71/fcdd15f6f712e5d906b75010fd70d887.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-thep-thay-the-danh-cho-samsung-galaxy-fit-3-kai-n-milanese-pro_-hang-chinh-hang-p274798222.html?spid=274798232</t>
+          <t>https://tiki.vn/day-silicon-khoa-the-thao-cho-apple-watch-series-1-2-3-4-5-6-7-8-9-se1-2-apple-watch-ultra-1-2-size-38-40-41-42-44-45-49mm-hang-chinh-hang-p274589038.html?spid=274589070</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2282,17 +2282,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>dây đeo thép thay thế dành cho samsung galaxy fit 3, kai.n milanese pro_ hàng chính hãng</t>
+          <t>dây silicon khóa thể thao cho apple watch series 1/2/3/4/5/6/7/8/9/se1,2 &amp; apple watch ultra 1/2 size 38/40/41/42/44/45/49mm - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>274589038</v>
+        <v>274085289</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dây Silicon Khóa Thể Thao cho Apple Watch Series 1/2/3/4/5/6/7/8/9/SE1,2 &amp; Apple Watch Ultra 1/2 Size 38/40/41/42/44/45/49mm - Hàng Chính Hãng</t>
+          <t>Dây đeo Nylon Loop cho Xiaomi Mi Band 8 / Xiaomi Mi Band 9 / Xiaomi Mi Band 10 - Hàng Nhập Khẩu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2305,17 +2305,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/274589038_5704484573321716100.jpg</t>
+          <t>Đồng_hồ_thông_minh/274085289_-5952636025963502983.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/6f/71/fcdd15f6f712e5d906b75010fd70d887.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/cd/37/3e16e43ca95ebe0b76d4385df4d6bf09.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-silicon-khoa-the-thao-cho-apple-watch-series-1-2-3-4-5-6-7-8-9-se1-2-apple-watch-ultra-1-2-size-38-40-41-42-44-45-49mm-hang-chinh-hang-p274589038.html?spid=274589070</t>
+          <t>https://tiki.vn/day-deo-nylon-loop-cho-xiaomi-mi-band-8-hang-nhap-khau-p274085289.html?spid=274085291</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2325,17 +2325,17 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>dây silicon khóa thể thao cho apple watch series 1/2/3/4/5/6/7/8/9/se1,2 &amp; apple watch ultra 1/2 size 38/40/41/42/44/45/49mm - hàng chính hãng</t>
+          <t>dây đeo nylon loop cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng nhập khẩu</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>274085289</v>
+        <v>273393456</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dây đeo Nylon Loop cho Xiaomi Mi Band 8 / Xiaomi Mi Band 9 / Xiaomi Mi Band 10 - Hàng Nhập Khẩu</t>
+          <t>Dây Đeo Thay Thế Dành Cho Vòng Đeo Tay Thông Minh Xiaomi MiBand 8/ Miband 9/ Mi band 10 Ngàm Thép Chắc Chắn_ Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2344,21 +2344,21 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>99000</v>
+        <v>59000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/274085289_-5952636025963502983.jpg</t>
+          <t>Đồng_hồ_thông_minh/273393456_7868701724345548366.jpg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/cd/37/3e16e43ca95ebe0b76d4385df4d6bf09.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/91/05/f3d77e5d91a780927142791ad2dc7a4e.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-nylon-loop-cho-xiaomi-mi-band-8-hang-nhap-khau-p274085289.html?spid=274085291</t>
+          <t>https://tiki.vn/day-deo-thay-the-danh-cho-vong-deo-tay-thong-minh-xiaomi-miband-8-ngam-thep-chac-chan_-hang-chinh-hang-p273393456.html?spid=273393464</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>dây đeo nylon loop cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng nhập khẩu</t>
+          <t>dây đeo thay thế dành cho vòng đeo tay thông minh xiaomi miband 8/ miband 9/ mi band 10 ngàm thép chắc chắn_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>273393456</v>
+        <v>272420792</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dây Đeo Thay Thế Dành Cho Vòng Đeo Tay Thông Minh Xiaomi MiBand 8/ Miband 9/ Mi band 10 Ngàm Thép Chắc Chắn_ Hàng Chính Hãng</t>
+          <t>Dây Cáp Sạc Từ Tính cho Đồng Hồ Xiaomi Mi Band 10/ Mi Band 8/ Miband 9/ 8 Active / 8 Pro / Redmi Smart Band 2 / Redmi Watch 3 Active / Redmi Watch 4_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2387,21 +2387,21 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>59000</v>
+        <v>69000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273393456_7868701724345548366.jpg</t>
+          <t>Đồng_hồ_thông_minh/272420792_-9134632499382900816.jpg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/91/05/f3d77e5d91a780927142791ad2dc7a4e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5f/21/74/3a4aa740385a07188507833f9243af50.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-thay-the-danh-cho-vong-deo-tay-thong-minh-xiaomi-miband-8-ngam-thep-chac-chan_-hang-chinh-hang-p273393456.html?spid=273393464</t>
+          <t>https://tiki.vn/day-cap-sac-tu-tinh-cho-dong-ho-xiaomi-mi-band-8_-hang-chinh-hang-p272420792.html?spid=272420793</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>dây đeo thay thế dành cho vòng đeo tay thông minh xiaomi miband 8/ miband 9/ mi band 10 ngàm thép chắc chắn_ hàng chính hãng</t>
+          <t>dây cáp sạc từ tính cho đồng hồ xiaomi mi band 10/ mi band 8/ miband 9/ 8 active / 8 pro / redmi smart band 2 / redmi watch 3 active / redmi watch 4_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>272420792</v>
+        <v>272420344</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dây Cáp Sạc Từ Tính cho Đồng Hồ Xiaomi Mi Band 10/ Mi Band 8/ Miband 9/ 8 Active / 8 Pro / Redmi Smart Band 2 / Redmi Watch 3 Active / Redmi Watch 4_ Hàng chính hãng</t>
+          <t>Cáp sạc nhanh type C dành cho đồng hồ Garmin Fenix 7, Fenix 6,5, Epix, Forerunner 955, 945, 935, 245, 255, 45, 645, Instinct_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2430,21 +2430,21 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>69000</v>
+        <v>89000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/272420792_-9134632499382900816.jpg</t>
+          <t>Đồng_hồ_thông_minh/272420344_-7964188594899951701.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5f/21/74/3a4aa740385a07188507833f9243af50.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b8/c5/c4/8b6dad40fed6130b097576b85cf07f2d.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-cap-sac-tu-tinh-cho-dong-ho-xiaomi-mi-band-8_-hang-chinh-hang-p272420792.html?spid=272420793</t>
+          <t>https://tiki.vn/cap-sac-nhanh-type-c-dong-ho-garmin-fenix-7-fenix-6-5-epix-forerunner-955-945-935-245-255-45-645-instinct_-hang-chinh-hang-p272420344.html?spid=272420345</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2454,17 +2454,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>dây cáp sạc từ tính cho đồng hồ xiaomi mi band 10/ mi band 8/ miband 9/ 8 active / 8 pro / redmi smart band 2 / redmi watch 3 active / redmi watch 4_ hàng chính hãng</t>
+          <t>cáp sạc nhanh type c dành cho đồng hồ garmin fenix 7, fenix 6,5, epix, forerunner 955, 945, 935, 245, 255, 45, 645, instinct_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>272420344</v>
+        <v>272420302</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cáp sạc nhanh type C dành cho đồng hồ Garmin Fenix 7, Fenix 6,5, Epix, Forerunner 955, 945, 935, 245, 255, 45, 645, Instinct_ Hàng chính hãng</t>
+          <t>Cáp sạc thay thế cho các dòng đồng hồ Garmin Fenix 7, Fenix 6, Fenix 5, Forerunner 955, 945, 935, 245, 265, 255, 45, 645, Instinct, Viviactive 3, Venu/ Garmin Epix Gen 2- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2473,21 +2473,21 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>89000</v>
+        <v>75000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/272420344_-7964188594899951701.jpg</t>
+          <t>Đồng_hồ_thông_minh/272420302_-7207895536639455076.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b8/c5/c4/8b6dad40fed6130b097576b85cf07f2d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/fa/6b/b10e15e70e56ba23a629e65efda573ac.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cap-sac-nhanh-type-c-dong-ho-garmin-fenix-7-fenix-6-5-epix-forerunner-955-945-935-245-255-45-645-instinct_-hang-chinh-hang-p272420344.html?spid=272420345</t>
+          <t>https://tiki.vn/cap-sac-thay-the-cho-cac-dong-dong-ho-garmin-fenix-7-fenix-6-fenix-5-forerunner-955-945-935-245-265-255-45-645-instinct-viviactive-3-venu-garmin-epix-gen-2-hang-chinh-hang-p272420302.html?spid=174847461</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2497,17 +2497,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cáp sạc nhanh type c dành cho đồng hồ garmin fenix 7, fenix 6,5, epix, forerunner 955, 945, 935, 245, 255, 45, 645, instinct_ hàng chính hãng</t>
+          <t>cáp sạc thay thế cho các dòng đồng hồ garmin fenix 7, fenix 6, fenix 5, forerunner 955, 945, 935, 245, 265, 255, 45, 645, instinct, viviactive 3, venu/ garmin epix gen 2- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>272420302</v>
+        <v>263953646</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cáp sạc thay thế cho các dòng đồng hồ Garmin Fenix 7, Fenix 6, Fenix 5, Forerunner 955, 945, 935, 245, 265, 255, 45, 645, Instinct, Viviactive 3, Venu/ Garmin Epix Gen 2- Hàng Chính Hãng</t>
+          <t>Dây Đồng Hồ Dành Cho Apple Watch KAi.N Sport Magnetic- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2516,21 +2516,21 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>75000</v>
+        <v>190000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/272420302_-7207895536639455076.jpg</t>
+          <t>Đồng_hồ_thông_minh/263953646_-6742295543157819999.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/fa/6b/b10e15e70e56ba23a629e65efda573ac.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/2b/94/a64fe6ff087059df339764ae3ab8827a.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cap-sac-thay-the-cho-cac-dong-dong-ho-garmin-fenix-7-fenix-6-fenix-5-forerunner-955-945-935-245-265-255-45-645-instinct-viviactive-3-venu-garmin-epix-gen-2-hang-chinh-hang-p272420302.html?spid=174847461</t>
+          <t>https://tiki.vn/day-dong-ho-danh-cho-apple-watch-kai-n-sport-magnetic-hang-chinh-hang-p263953646.html?spid=263953648</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2540,17 +2540,17 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cáp sạc thay thế cho các dòng đồng hồ garmin fenix 7, fenix 6, fenix 5, forerunner 955, 945, 935, 245, 265, 255, 45, 645, instinct, viviactive 3, venu/ garmin epix gen 2- hàng chính hãng</t>
+          <t>dây đồng hồ dành cho apple watch kai.n sport magnetic- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>263953646</v>
+        <v>263796091</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dây Đồng Hồ Dành Cho Apple Watch KAi.N Sport Magnetic- Hàng Chính Hãng</t>
+          <t>Dây Đeo Thay Thế Dành Cho Galaxy Watch 5/4/3, Huawei Watch GT/GT2/GT3/Pro, Amazfit GT2/3/4,Garmin Size 20/22mm, Kai.N Sport Band - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2559,21 +2559,21 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>190000</v>
+        <v>149000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/263953646_-6742295543157819999.jpg</t>
+          <t>Đồng_hồ_thông_minh/263796091_-4910992540756560652.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/2b/94/a64fe6ff087059df339764ae3ab8827a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/ff/62/aeaad8c8f9025ec655c65a3ddcb81716.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-dong-ho-danh-cho-apple-watch-kai-n-sport-magnetic-hang-chinh-hang-p263953646.html?spid=263953648</t>
+          <t>https://tiki.vn/day-deo-thay-the-danh-cho-galaxy-watch-5-4-3-huawei-watch-gt-gt2-gt3-pro-amazfit-gt2-3-4-garmin-size-20-22mm-kai-n-sport-band-hang-chinh-hang-p263796091.html?spid=263796095</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2583,17 +2583,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>dây đồng hồ dành cho apple watch kai.n sport magnetic- hàng chính hãng</t>
+          <t>dây đeo thay thế dành cho galaxy watch 5/4/3, huawei watch gt/gt2/gt3/pro, amazfit gt2/3/4,garmin size 20/22mm, kai.n sport band - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>263796091</v>
+        <v>272859245</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dây Đeo Thay Thế Dành Cho Galaxy Watch 5/4/3, Huawei Watch GT/GT2/GT3/Pro, Amazfit GT2/3/4,Garmin Size 20/22mm, Kai.N Sport Band - Hàng Chính Hãng</t>
+          <t>Miếng Dán Mặt Đồng Hồ TPU Hydrogel Film Chống Trầy cho Apple Watch 4/5/6/7/8/9/ SE Ultra_ Hàng chính hãng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2602,21 +2602,21 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>149000</v>
+        <v>29000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/263796091_-4910992540756560652.jpg</t>
+          <t>Đồng_hồ_thông_minh/272859245_-5003464015644257838.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/ff/62/aeaad8c8f9025ec655c65a3ddcb81716.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/ca/7e/1f6bcfefe1c5b8263910d16298606461.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-thay-the-danh-cho-galaxy-watch-5-4-3-huawei-watch-gt-gt2-gt3-pro-amazfit-gt2-3-4-garmin-size-20-22mm-kai-n-sport-band-hang-chinh-hang-p263796091.html?spid=263796095</t>
+          <t>https://tiki.vn/mieng-dan-mat-dong-ho-tpu-hydrogel-film-chong-tray-cho-apple-watch-4-5-6-7-8-9-se-ultra-p272859245.html?spid=272859249</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>dây đeo thay thế dành cho galaxy watch 5/4/3, huawei watch gt/gt2/gt3/pro, amazfit gt2/3/4,garmin size 20/22mm, kai.n sport band - hàng chính hãng</t>
+          <t>miếng dán mặt đồng hồ tpu hydrogel film chống trầy cho apple watch 4/5/6/7/8/9/ se ultra_ hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>272859245</v>
+        <v>272155886</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Miếng Dán Mặt Đồng Hồ TPU Hydrogel Film Chống Trầy cho Apple Watch 4/5/6/7/8/9/ SE Ultra_ Hàng chính hãng</t>
+          <t>Dán cường lực GOR cho Smartwatch Huawei Watch GT3 46mm/ GT3 Pro/ Huawei Watch GT Runner/ Huawei Watch GT4 - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2645,21 +2645,21 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>29000</v>
+        <v>139000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/272859245_-5003464015644257838.jpg</t>
+          <t>Đồng_hồ_thông_minh/272155886_302338802200834537.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/ca/7e/1f6bcfefe1c5b8263910d16298606461.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/67/a1/1503a5ee0fec06e2a2f6ca96723a2deb.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://tiki.vn/mieng-dan-mat-dong-ho-tpu-hydrogel-film-chong-tray-cho-apple-watch-4-5-6-7-8-9-se-ultra-p272859245.html?spid=272859249</t>
+          <t>https://tiki.vn/dan-cuong-luc-gor-cho-smartwatch-huawei-watch-gt-3-46mm-huawei-watch-gt-runner-hang-chinh-hang-p272155886.html?spid=273382381</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>miếng dán mặt đồng hồ tpu hydrogel film chống trầy cho apple watch 4/5/6/7/8/9/ se ultra_ hàng chính hãng</t>
+          <t>dán cường lực gor cho smartwatch huawei watch gt3 46mm/ gt3 pro/ huawei watch gt runner/ huawei watch gt4 - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>272155886</v>
+        <v>262973262</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dán cường lực GOR cho Smartwatch Huawei Watch GT3 46mm/ GT3 Pro/ Huawei Watch GT Runner/ Huawei Watch GT4 - Hàng Chính Hãng</t>
+          <t>Dây Đeo Silicone Đồng hồ samsung watch 4/ watch 5- Hàng chính hãng</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2688,21 +2688,21 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>139000</v>
+        <v>59000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/272155886_302338802200834537.jpg</t>
+          <t>Đồng_hồ_thông_minh/262973262_2694759051601931022.jpg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/67/a1/1503a5ee0fec06e2a2f6ca96723a2deb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/8c/60/4c019339de1631db021b36b82bc9806e.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dan-cuong-luc-gor-cho-smartwatch-huawei-watch-gt-3-46mm-huawei-watch-gt-runner-hang-chinh-hang-p272155886.html?spid=273382381</t>
+          <t>https://tiki.vn/day-deo-silicone-dong-ho-samsung-watch-4-watch-5-hang-chinh-hang-p262973262.html?spid=274720002</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>dán cường lực gor cho smartwatch huawei watch gt3 46mm/ gt3 pro/ huawei watch gt runner/ huawei watch gt4 - hàng chính hãng</t>
+          <t>dây đeo silicone đồng hồ samsung watch 4/ watch 5- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>262973262</v>
+        <v>248565685</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dây Đeo Silicone Đồng hồ samsung watch 4/ watch 5- Hàng chính hãng</t>
+          <t>Dây Đeo Da Dành Cho Apple Watch Ultra / Apple Watch Series 1-8/SE/SE 2022, Kai.N_Genuine Leather - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2731,21 +2731,21 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>59000</v>
+        <v>469000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/262973262_2694759051601931022.jpg</t>
+          <t>Đồng_hồ_thông_minh/248565685_-1785966916457352859.jpg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/8c/60/4c019339de1631db021b36b82bc9806e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/03/06/29/e354de09b8f45e8b5d242fb36ebeab93.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-silicone-dong-ho-samsung-watch-4-watch-5-hang-chinh-hang-p262973262.html?spid=274720002</t>
+          <t>https://tiki.vn/day-deo-da-danh-cho-apple-watch-ultra-apple-watch-series-1-8-se-se-2022-kai-n_genuine-leather-hang-chinh-hang-p248565685.html?spid=248565710</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2755,17 +2755,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>dây đeo silicone đồng hồ samsung watch 4/ watch 5- hàng chính hãng</t>
+          <t>dây đeo da dành cho apple watch ultra / apple watch series 1-8/se/se 2022, kai.n_genuine leather - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>248565685</v>
+        <v>205804620</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dây Đeo Da Dành Cho Apple Watch Ultra / Apple Watch Series 1-8/SE/SE 2022, Kai.N_Genuine Leather - Hàng Chính Hãng</t>
+          <t>Dán Film cường lực Full 3D dành cho Apple Watch Series 10 42mm / 46mm hiệu WIWU iVista Chống va đập, vát cạnh 2.5D, hạn chế vân tay - hàng nhập khẩu</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2774,21 +2774,21 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>469000</v>
+        <v>120000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/248565685_-1785966916457352859.jpg</t>
+          <t>Đồng_hồ_thông_minh/205804620_-1080773775395836727.jpe</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/03/06/29/e354de09b8f45e8b5d242fb36ebeab93.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b9/71/4c/190045d8743bd2cf4e9ba05d3a0c3991.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-da-danh-cho-apple-watch-ultra-apple-watch-series-1-8-se-se-2022-kai-n_genuine-leather-hang-chinh-hang-p248565685.html?spid=248565710</t>
+          <t>https://tiki.vn/bo-2-mieng-dan-man-hinh-kinh-cuong-luc-full-3d-danh-cho-apple-watch-series-4-5-6-se-s8-ultra-hieu-wiwu-ivista-chong-va-dap-vat-canh-2-5d-han-che-van-tay-hang-nhap-khau-p205804620.html?spid=276531088</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2798,17 +2798,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>dây đeo da dành cho apple watch ultra / apple watch series 1-8/se/se 2022, kai.n_genuine leather - hàng chính hãng</t>
+          <t>dán film cường lực full 3d dành cho apple watch series 10 42mm / 46mm hiệu wiwu ivista chống va đập, vát cạnh 2.5d, hạn chế vân tay - hàng nhập khẩu</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>205804620</v>
+        <v>202712620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dán Film cường lực Full 3D dành cho Apple Watch Series 10 42mm / 46mm hiệu WIWU iVista Chống va đập, vát cạnh 2.5D, hạn chế vân tay - hàng nhập khẩu</t>
+          <t>Kính Thực Tế Ảo 3D VR SHINECON 6 G06EB Android IOS - Dùng Cho Điện Thoại Từ 4.7 - 6.1 inches - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2817,21 +2817,21 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>120000</v>
+        <v>319000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/205804620_-1080773775395836727.jpe</t>
+          <t>Đồng_hồ_thông_minh/202712620_-8981164827550741961.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b9/71/4c/190045d8743bd2cf4e9ba05d3a0c3991.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/50/6b/5369220b6860aba6ea38e4eb7865ad4c.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://tiki.vn/bo-2-mieng-dan-man-hinh-kinh-cuong-luc-full-3d-danh-cho-apple-watch-series-4-5-6-se-s8-ultra-hieu-wiwu-ivista-chong-va-dap-vat-canh-2-5d-han-che-van-tay-hang-nhap-khau-p205804620.html?spid=276531088</t>
+          <t>https://tiki.vn/kinh-thuc-te-ao-3d-vr-shinecon-6-g06eb-android-ios-dung-cho-dien-thoai-tu-4-7-6-1-inches-hang-chinh-hang-p202712620.html?spid=202712621</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2841,17 +2841,17 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>dán film cường lực full 3d dành cho apple watch series 10 42mm / 46mm hiệu wiwu ivista chống va đập, vát cạnh 2.5d, hạn chế vân tay - hàng nhập khẩu</t>
+          <t>kính thực tế ảo 3d vr shinecon 6 g06eb android ios - dùng cho điện thoại từ 4.7 - 6.1 inches - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>202712620</v>
+        <v>199569840</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kính Thực Tế Ảo 3D VR SHINECON 6 G06EB Android IOS - Dùng Cho Điện Thoại Từ 4.7 - 6.1 inches - Hàng Chính Hãng</t>
+          <t>Kính Cường Lực Đồng hồ Thông minh Q12, Q15, Q12B, D06S, LT31, DH11, G2, A28, DS60, M80, Q16S, K10 Kích thước 30mm x 35mm Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2860,21 +2860,21 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>319000</v>
+        <v>33000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/202712620_-8981164827550741961.jpg</t>
+          <t>Đồng_hồ_thông_minh/199569840_1483279427008882909.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/50/6b/5369220b6860aba6ea38e4eb7865ad4c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ea/8d/4e/d5c2bedc0723e15405b373584e694c57.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://tiki.vn/kinh-thuc-te-ao-3d-vr-shinecon-6-g06eb-android-ios-dung-cho-dien-thoai-tu-4-7-6-1-inches-hang-chinh-hang-p202712620.html?spid=202712621</t>
+          <t>https://tiki.vn/kinh-cuong-luc-cho-dong-ho-thong-minh-tre-em-q12-g2-a28-ds60-m80-q16s-p199569840.html?spid=199569841</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2884,17 +2884,17 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>kính thực tế ảo 3d vr shinecon 6 g06eb android ios - dùng cho điện thoại từ 4.7 - 6.1 inches - hàng chính hãng</t>
+          <t>kính cường lực đồng hồ thông minh q12, q15, q12b, d06s, lt31, dh11, g2, a28, ds60, m80, q16s, k10 kích thước 30mm x 35mm hàng nhập khẩu</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>199569840</v>
+        <v>198120996</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kính Cường Lực Đồng hồ Thông minh Q12, Q15, Q12B, D06S, LT31, DH11, G2, A28, DS60, M80, Q16S, K10 Kích thước 30mm x 35mm Hàng nhập khẩu</t>
+          <t>Ốp Case Kèm Dây Đeo Kiểu Gshock Kai dành cho Đồng Hồ Apple Watch- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2903,21 +2903,21 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>33000</v>
+        <v>150000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/199569840_1483279427008882909.jpg</t>
+          <t>Đồng_hồ_thông_minh/198120996_3300495293047841375.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ea/8d/4e/d5c2bedc0723e15405b373584e694c57.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/3c/99/3d85d9ac33b1a5f14c28da32fcfcb76d.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://tiki.vn/kinh-cuong-luc-cho-dong-ho-thong-minh-tre-em-q12-g2-a28-ds60-m80-q16s-p199569840.html?spid=199569841</t>
+          <t>https://tiki.vn/op-case-kem-day-deo-kieu-gshock-kai-danh-cho-dong-ho-apple-watch-hang-chinh-hang-p198120996.html?spid=198121010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2927,17 +2927,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>kính cường lực đồng hồ thông minh q12, q15, q12b, d06s, lt31, dh11, g2, a28, ds60, m80, q16s, k10 kích thước 30mm x 35mm hàng nhập khẩu</t>
+          <t>ốp case kèm dây đeo kiểu gshock kai dành cho đồng hồ apple watch- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>198120996</v>
+        <v>196182793</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ốp Case Kèm Dây Đeo Kiểu Gshock Kai dành cho Đồng Hồ Apple Watch- Hàng Chính Hãng</t>
+          <t>Cáp Sạc Thay Thế Nillkin dành cho Đồng Hồ Garmin Fenix / Forerunner  / Instinct / Vivoactive / Vivomove / Venu / Approach / Epix - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2946,21 +2946,21 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>150000</v>
+        <v>193030</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/198120996_3300495293047841375.jpg</t>
+          <t>Đồng_hồ_thông_minh/196182793_6241535321017162202.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/3c/99/3d85d9ac33b1a5f14c28da32fcfcb76d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/80/6e/4d12fdc871e4927886eecbd1bd4bb2b3.jpg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://tiki.vn/op-case-kem-day-deo-kieu-gshock-kai-danh-cho-dong-ho-apple-watch-hang-chinh-hang-p198120996.html?spid=198121010</t>
+          <t>https://tiki.vn/cap-sac-thay-the-nillkin-danh-cho-dong-ho-garmin-fenix-forerunner-instinct-vivoactive-vivomove-venu-approach-epix-p196182793.html?spid=196182794</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2970,17 +2970,17 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>ốp case kèm dây đeo kiểu gshock kai dành cho đồng hồ apple watch- hàng chính hãng</t>
+          <t>cáp sạc thay thế nillkin dành cho đồng hồ garmin fenix / forerunner  / instinct / vivoactive / vivomove / venu / approach / epix - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>196182793</v>
+        <v>193874743</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cáp Sạc Thay Thế Nillkin dành cho Đồng Hồ Garmin Fenix / Forerunner  / Instinct / Vivoactive / Vivomove / Venu / Approach / Epix - Hàng Chính Hãng</t>
+          <t>Cáp Sạc Cho Đồng Hồ Huami Amazfit GTS3/ GTR3/ GTR3 Pro/ T-Rex 2/ GTR 4/ GTS 4- Hàng chính hãng</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2989,21 +2989,21 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>193030</v>
+        <v>120000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/196182793_6241535321017162202.jpg</t>
+          <t>Đồng_hồ_thông_minh/193874743_-8149006145649889644.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/80/6e/4d12fdc871e4927886eecbd1bd4bb2b3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/96/48/46/00f6af9781aca694144acd79df667d70.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cap-sac-thay-the-nillkin-danh-cho-dong-ho-garmin-fenix-forerunner-instinct-vivoactive-vivomove-venu-approach-epix-p196182793.html?spid=196182794</t>
+          <t>https://tiki.vn/cap-sac-cho-dong-ho-huami-amazfit-gts3-gtr3-gtr3-pro-t-rex-2-hang-chinh-hang-p193874743.html?spid=193874744</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3013,17 +3013,17 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cáp sạc thay thế nillkin dành cho đồng hồ garmin fenix / forerunner  / instinct / vivoactive / vivomove / venu / approach / epix - hàng chính hãng</t>
+          <t>cáp sạc cho đồng hồ huami amazfit gts3/ gtr3/ gtr3 pro/ t-rex 2/ gtr 4/ gts 4- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>193874743</v>
+        <v>191604412</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cáp Sạc Cho Đồng Hồ Huami Amazfit GTS3/ GTR3/ GTR3 Pro/ T-Rex 2/ GTR 4/ GTS 4- Hàng chính hãng</t>
+          <t>Dây Đeo Thay Thế Dành Cho Vòng Đeo Tay Thông Minh Xiaomi MiBand 7 Dẻo TPU- Hàng chính hãng</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3032,21 +3032,21 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>120000</v>
+        <v>45000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/193874743_-8149006145649889644.jpg</t>
+          <t>Đồng_hồ_thông_minh/191604412_4724786286794523142.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/96/48/46/00f6af9781aca694144acd79df667d70.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1c/96/9c/fe5b036696058b82ebcff08c0b621a20.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cap-sac-cho-dong-ho-huami-amazfit-gts3-gtr3-gtr3-pro-t-rex-2-hang-chinh-hang-p193874743.html?spid=193874744</t>
+          <t>https://tiki.vn/day-deo-thay-the-danh-cho-vong-deo-tay-thong-minh-xiaomi-mi-band-7-deo-tpu-hang-chinh-hang-p191604412.html?spid=262637120</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3056,17 +3056,17 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cáp sạc cho đồng hồ huami amazfit gts3/ gtr3/ gtr3 pro/ t-rex 2/ gtr 4/ gts 4- hàng chính hãng</t>
+          <t>dây đeo thay thế dành cho vòng đeo tay thông minh xiaomi miband 7 dẻo tpu- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>191604412</v>
+        <v>191501918</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dây Đeo Thay Thế Dành Cho Vòng Đeo Tay Thông Minh Xiaomi MiBand 7 Dẻo TPU- Hàng chính hãng</t>
+          <t>Dây Cao Su Thay Thế cho Samsung Galaxy Fit 2 (SM-R220)- Hàng chính hãng</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3075,21 +3075,21 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/191604412_4724786286794523142.jpg</t>
+          <t>Đồng_hồ_thông_minh/191501918_-4369688075169461810.jpg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1c/96/9c/fe5b036696058b82ebcff08c0b621a20.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/c6/a5/e3e4fd022295d905e00040559c34ed95.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-deo-thay-the-danh-cho-vong-deo-tay-thong-minh-xiaomi-mi-band-7-deo-tpu-hang-chinh-hang-p191604412.html?spid=262637120</t>
+          <t>https://tiki.vn/day-cao-su-thay-the-cho-samsung-galaxy-fit-2-sm-r220-hang-chinh-hang-p191501918.html?spid=191501930</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>dây đeo thay thế dành cho vòng đeo tay thông minh xiaomi miband 7 dẻo tpu- hàng chính hãng</t>
+          <t>dây cao su thay thế cho samsung galaxy fit 2 (sm-r220)- hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>191501918</v>
+        <v>184698432</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dây Cao Su Thay Thế cho Samsung Galaxy Fit 2 (SM-R220)- Hàng chính hãng</t>
+          <t>Dán màn hình 3D GOR cho Apple Watch Series 9/ Series 8/ Series 7 Size 41mm / 45mm (Hộp 2 Miếng) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3118,21 +3118,21 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/191501918_-4369688075169461810.jpg</t>
+          <t>Đồng_hồ_thông_minh/184698432_3114307430900023916.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/c6/a5/e3e4fd022295d905e00040559c34ed95.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/59/23/c8b60048a97f708a20b687ca5ce81f1d.jpg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://tiki.vn/day-cao-su-thay-the-cho-samsung-galaxy-fit-2-sm-r220-hang-chinh-hang-p191501918.html?spid=191501930</t>
+          <t>https://tiki.vn/dan-man-hinh-3d-gor-cho-apple-watch-series-7-size-41mm-45mm-hop-2-mieng-hang-chinh-hang-p184698432.html?spid=184698436</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3142,17 +3142,17 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>dây cao su thay thế cho samsung galaxy fit 2 (sm-r220)- hàng chính hãng</t>
+          <t>dán màn hình 3d gor cho apple watch series 9/ series 8/ series 7 size 41mm / 45mm (hộp 2 miếng) - hàng chính hãng</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>184698432</v>
+        <v>272420279</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dán màn hình 3D GOR cho Apple Watch Series 9/ Series 8/ Series 7 Size 41mm / 45mm (Hộp 2 Miếng) - Hàng Chính Hãng</t>
+          <t>Cáp sạc nhanh thay thế cho các dòng đồng hồ Garmin cổng Type C- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3161,21 +3161,21 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/184698432_3114307430900023916.jpg</t>
+          <t>Đồng_hồ_thông_minh/272420279_-851076489625377202.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/59/23/c8b60048a97f708a20b687ca5ce81f1d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e0/46/28/1514efc2ad0045a818c8bf7509db55b5.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dan-man-hinh-3d-gor-cho-apple-watch-series-7-size-41mm-45mm-hop-2-mieng-hang-chinh-hang-p184698432.html?spid=184698436</t>
+          <t>https://tiki.vn/cap-sac-nhanh-thay-the-cho-cac-dong-dong-ho-garmin-cong-type-c-hang-chinh-hang-p272420279.html?spid=174830541</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3184,49 +3184,6 @@
         </is>
       </c>
       <c r="I64" t="inlineStr">
-        <is>
-          <t>dán màn hình 3d gor cho apple watch series 9/ series 8/ series 7 size 41mm / 45mm (hộp 2 miếng) - hàng chính hãng</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>272420279</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Cáp sạc nhanh thay thế cho các dòng đồng hồ Garmin cổng Type C- Hàng Chính Hãng</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Đồng hồ thông minh</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>75000</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Đồng_hồ_thông_minh/272420279_-851076489625377202.jpg</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e0/46/28/1514efc2ad0045a818c8bf7509db55b5.jpg</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://tiki.vn/cap-sac-nhanh-thay-the-cho-cac-dong-dong-ho-garmin-cong-type-c-hang-chinh-hang-p272420279.html?spid=174830541</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Tiki</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
         <is>
           <t>cáp sạc nhanh thay thế cho các dòng đồng hồ garmin cổng type c- hàng chính hãng</t>
         </is>
